--- a/biology/Zoologie/Gojirasaurus/Gojirasaurus.xlsx
+++ b/biology/Zoologie/Gojirasaurus/Gojirasaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gojirasaurus est un dinosaure, l'un des plus grands carnivores de la fin du Trias.
 Il ressemblait sans doute au Coelophysis, mais il était deux fois plus grand et pesait près de 200 kg[réf. nécessaire].
